--- a/足球/各国联赛/英格兰/中奖概率表联赛分表.xlsx
+++ b/足球/各国联赛/英格兰/中奖概率表联赛分表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\jingcai\足球\各国联赛\英格兰\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D9FF2-370A-4DBB-A5A1-1D47E2BEDCD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="4">
+  <si>
+    <t>赛事预测命中率</t>
+  </si>
+  <si>
+    <t>预测人</t>
+  </si>
+  <si>
+    <t>预测结果</t>
+  </si>
+  <si>
+    <t>赛事结果</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +75,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +390,865 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="151" max="152" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EV2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>